--- a/RAW_PUBLIC/MarchSales2024_public.xlsx
+++ b/RAW_PUBLIC/MarchSales2024_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0011485</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0011485</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0011486</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0011487</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -815,7 +815,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0011487</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -886,7 +886,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0011488</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0011489</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1028,7 +1028,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0011490</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1103,7 +1103,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0011491</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1174,7 +1174,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0011492</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1249,7 +1249,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0011493</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1320,7 +1320,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0011494</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1391,7 +1391,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0011495</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1462,7 +1462,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0011496</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1537,7 +1537,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0011497</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0011498</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1679,7 +1679,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0011499</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1750,7 +1750,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0011500</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1825,7 +1825,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0011501</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0011502</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1967,7 +1967,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0011502</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0011503</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0011504</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0011504</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2251,7 +2251,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0011505</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2322,7 +2322,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0011505</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0011506</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0011507</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2535,7 +2535,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2606,7 +2606,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2677,7 +2677,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2819,7 +2819,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2890,7 +2890,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0011508</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3032,7 +3032,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0011509</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3103,7 +3103,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0011510</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3174,7 +3174,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0011511</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3245,7 +3245,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0011512</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0011513</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0011514</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3458,7 +3458,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0011514</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3529,7 +3529,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0011515</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3600,7 +3600,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0011515</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3671,7 +3671,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0011516</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3742,7 +3742,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0011517</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3813,7 +3813,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0011518</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3884,7 +3884,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0011518</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3955,7 +3955,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0011518</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4026,7 +4026,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0011518</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4097,7 +4097,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0011519</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0011520</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4239,7 +4239,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0011521</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0011522</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4381,7 +4381,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0011523</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4452,7 +4452,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0011524</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4523,7 +4523,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0011525</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4594,7 +4594,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0011526</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4665,7 +4665,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0011527</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0011528</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4811,7 +4811,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0011529</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4882,7 +4882,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0011530</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4953,7 +4953,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0011530</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5024,7 +5024,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0011531</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5095,7 +5095,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0011532</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5166,7 +5166,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0011533</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5237,7 +5237,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0011534</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0011534</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0011534</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5450,7 +5450,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0011535</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5521,7 +5521,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0011536</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5592,7 +5592,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0011536</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5663,7 +5663,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0011536</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5734,7 +5734,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0011537</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5805,7 +5805,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0011538</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5876,7 +5876,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0011539</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5947,7 +5947,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -6018,7 +6018,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -6089,7 +6089,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6160,7 +6160,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6231,7 +6231,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6302,7 +6302,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6373,7 +6373,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0011540</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6444,7 +6444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0011541</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6515,7 +6515,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0011542</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6586,7 +6586,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0011543</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6657,7 +6657,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0011544</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6728,7 +6728,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0011545</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6799,7 +6799,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0011546</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6870,7 +6870,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0011547</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6941,7 +6941,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0011548</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -7012,7 +7012,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0011549</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0011550</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7154,7 +7154,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0011551</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7229,7 +7229,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0011551</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0011552</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7375,7 +7375,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0011553</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7446,7 +7446,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0011553</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7517,7 +7517,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0011553</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7588,7 +7588,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0011554</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7663,7 +7663,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0011555</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0011556</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7813,7 +7813,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0011557</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7884,7 +7884,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0011558</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7955,7 +7955,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0011559</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -8026,7 +8026,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0011560</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -8097,7 +8097,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0011560</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8168,7 +8168,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0011560</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8239,7 +8239,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0011561</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8310,7 +8310,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0011562</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8381,7 +8381,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0011562</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8452,7 +8452,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0011563</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8523,7 +8523,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0011563</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8594,7 +8594,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0011564</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8665,7 +8665,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0011565</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8736,7 +8736,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0011565</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8807,7 +8807,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0011566</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8878,7 +8878,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0011567</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8949,7 +8949,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0011568</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -9020,7 +9020,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0011569</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -9091,7 +9091,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0011570</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -9162,7 +9162,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0011571</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9233,7 +9233,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0011572</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9304,7 +9304,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0011573</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9375,7 +9375,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0011574</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9446,7 +9446,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0011575</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9521,7 +9521,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0011576</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9592,7 +9592,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0011577</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9667,7 +9667,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0011578</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9742,7 +9742,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0011579</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9813,7 +9813,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0011580</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9884,7 +9884,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0011581</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9955,7 +9955,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0011582</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -10026,7 +10026,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0011583</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -10097,7 +10097,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0011584</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -10168,7 +10168,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0011584</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10239,7 +10239,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0011585</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10310,7 +10310,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0011586</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10381,7 +10381,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0011586</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10452,7 +10452,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0011587</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10527,7 +10527,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0011588</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10602,7 +10602,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0011589</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10673,7 +10673,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0011590</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10744,7 +10744,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0011590</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10815,7 +10815,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0011590</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10886,7 +10886,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0011591</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10961,7 +10961,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0011592</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11032,7 +11032,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0011593</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11103,7 +11103,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0011593</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11174,7 +11174,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0011594</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11245,7 +11245,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0011595</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11316,7 +11316,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0011596</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11387,7 +11387,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0011597</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11458,7 +11458,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0011598</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11529,7 +11529,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0011599</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11600,7 +11600,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0011600</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11671,7 +11671,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0011600</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11742,7 +11742,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0011601</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11813,7 +11813,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0011602</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11884,7 +11884,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0011603</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11955,7 +11955,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0011603</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -12026,7 +12026,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0011603</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -12097,7 +12097,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0011603</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -12168,7 +12168,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0011603</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -12239,7 +12239,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0011604</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12310,7 +12310,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0011605</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12381,7 +12381,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0011606</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12456,7 +12456,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0011607</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12531,7 +12531,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0011608</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12602,7 +12602,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0011609</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12673,7 +12673,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0011610</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12744,7 +12744,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0011610</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12815,7 +12815,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0011611</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12886,7 +12886,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0011612</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12957,7 +12957,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0011613</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -13028,7 +13028,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0011614</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -13099,7 +13099,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0011615</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -13170,7 +13170,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0011615</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -13241,7 +13241,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0011616</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13312,7 +13312,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0011616</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13383,7 +13383,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0011616</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13454,7 +13454,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0011617</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13529,7 +13529,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0011617</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13604,7 +13604,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0011618</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13675,7 +13675,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0011619</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13746,7 +13746,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0011620</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13817,7 +13817,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0011621</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13888,7 +13888,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0011622</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13959,7 +13959,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0011623</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -14030,7 +14030,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0011624</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -14101,7 +14101,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0011625</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -14172,7 +14172,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0011626</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -14243,7 +14243,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0011627</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14314,7 +14314,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0011627</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14385,7 +14385,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0011627</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14456,7 +14456,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0011628</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14527,7 +14527,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0011629</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14598,7 +14598,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14673,7 +14673,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14748,7 +14748,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14823,7 +14823,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14898,7 +14898,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14973,7 +14973,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0011630</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -15048,7 +15048,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -15123,7 +15123,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -15198,7 +15198,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -15273,7 +15273,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -15348,7 +15348,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15423,7 +15423,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0011631</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15498,7 +15498,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0011632</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15569,7 +15569,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0011633</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15640,7 +15640,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0011634</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15711,7 +15711,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0011635</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15782,7 +15782,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0011636</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15853,7 +15853,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0011637</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15924,7 +15924,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0011638</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15999,7 +15999,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0011639</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -16070,7 +16070,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0011639</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -16141,7 +16141,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0011639</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -16212,7 +16212,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0011640</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -16283,7 +16283,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0011641</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -16354,7 +16354,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0011642</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16429,7 +16429,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0011643</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16500,7 +16500,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0011644</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16571,7 +16571,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0011645</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16642,7 +16642,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0011646</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16713,7 +16713,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0011647</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16784,7 +16784,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0011647</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16855,7 +16855,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0011647</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16926,7 +16926,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0011647</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16997,7 +16997,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0011648</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -17072,7 +17072,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0011649</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -17143,7 +17143,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0011650</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -17214,7 +17214,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0011651</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -17285,7 +17285,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0011652</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -17356,7 +17356,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0011653</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17427,7 +17427,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0011654</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17498,7 +17498,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0011654</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17569,7 +17569,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0011654</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17640,7 +17640,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0011655</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17711,7 +17711,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0011656</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17786,7 +17786,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0011657</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17857,7 +17857,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0011658</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17928,7 +17928,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0011659</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17999,7 +17999,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0011660</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -18070,7 +18070,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0011661</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -18145,7 +18145,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0011662</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -18216,7 +18216,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0011663</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -18287,7 +18287,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0011664</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -18358,7 +18358,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0011665</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -18433,7 +18433,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0011665</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18508,7 +18508,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0011666</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18579,7 +18579,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0011667</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18650,7 +18650,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0011668</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18721,7 +18721,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0011669</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18792,7 +18792,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0011670</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18863,7 +18863,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0011671</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18934,7 +18934,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0011671</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -19005,7 +19005,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0011672</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -19076,7 +19076,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0011673</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -19151,7 +19151,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0011674</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -19222,7 +19222,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0011675</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -19293,7 +19293,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0011676</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -19364,7 +19364,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0011677</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -19435,7 +19435,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0011678</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19506,7 +19506,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0011679</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19581,7 +19581,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0011680</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19652,7 +19652,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0011681</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19723,7 +19723,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0011682</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19794,7 +19794,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0011683</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19865,7 +19865,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0011684</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19936,7 +19936,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011685</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -20007,7 +20007,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011685</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -20078,7 +20078,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011685</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -20149,7 +20149,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011685</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -20220,7 +20220,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0011685</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -20291,7 +20291,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0011686</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -20362,7 +20362,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0011687</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -20433,7 +20433,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0011687</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -20504,7 +20504,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0011688</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20579,7 +20579,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0011689</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20650,7 +20650,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0011690</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20721,7 +20721,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0011691</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20792,7 +20792,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0011692</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20863,7 +20863,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0011692</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20934,7 +20934,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0011692</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -21005,7 +21005,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0011693</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -21076,7 +21076,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0011694</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -21147,7 +21147,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0011695</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -21218,7 +21218,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0011696</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -21293,7 +21293,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0011697</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -21364,7 +21364,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0011698</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -21435,7 +21435,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0011698</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -21506,7 +21506,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0011698</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21577,7 +21577,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0011699</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21648,7 +21648,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0011700</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21719,7 +21719,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0011701</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21790,7 +21790,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0011701</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21861,7 +21861,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0011702</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21932,7 +21932,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0011702</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -22003,7 +22003,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0011703</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -22074,7 +22074,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0011704</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -22145,7 +22145,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0011705</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -22216,7 +22216,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0011706</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -22291,7 +22291,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0011707</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -22362,7 +22362,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0011708</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -22433,7 +22433,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -22504,7 +22504,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22575,7 +22575,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22646,7 +22646,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22717,7 +22717,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22788,7 +22788,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0011709</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22859,7 +22859,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0011710</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22930,7 +22930,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0011711</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -23001,7 +23001,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0011712</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -23072,7 +23072,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0011713</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -23143,7 +23143,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0011714</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -23214,7 +23214,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0011715</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -23285,7 +23285,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0011715</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -23356,7 +23356,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0011716</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -23427,7 +23427,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0011717</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -23498,7 +23498,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0011718</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -23569,7 +23569,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0011719</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23640,7 +23640,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23711,7 +23711,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23782,7 +23782,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23853,7 +23853,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23924,7 +23924,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -23995,7 +23995,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0011720</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -24066,7 +24066,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0011721</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -24137,7 +24137,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0011722</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -24208,7 +24208,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0011723</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -24279,7 +24279,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0011724</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -24350,7 +24350,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0011724</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -24421,7 +24421,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0011725</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -24492,7 +24492,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0011726</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -24567,7 +24567,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0011727</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0011728</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24713,7 +24713,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0011729</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24784,7 +24784,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0011730</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24855,7 +24855,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0011731</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24926,7 +24926,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0011732</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -24997,7 +24997,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0011733</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -25068,7 +25068,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0011734</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -25139,7 +25139,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0011735</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -25210,7 +25210,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0011736</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -25281,7 +25281,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0011737</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -25352,7 +25352,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0011738</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -25423,7 +25423,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0011739</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -25494,7 +25494,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0011739</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -25565,7 +25565,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0011740</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25640,7 +25640,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0011741</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25711,7 +25711,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0011742</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25782,7 +25782,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0011743</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25853,7 +25853,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0011744</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25924,7 +25924,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0011745</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25995,7 +25995,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0011745</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -26066,7 +26066,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0011746</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -26137,7 +26137,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0011746</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -26208,7 +26208,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0011747</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -26279,7 +26279,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0011748</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -26350,7 +26350,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0011749</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -26421,7 +26421,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0011750</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -26492,7 +26492,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0011751</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -26563,7 +26563,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0011752</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -26634,7 +26634,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0011753</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26709,7 +26709,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0011754</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26780,7 +26780,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0011755</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26851,7 +26851,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0011755</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26922,7 +26922,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0011756</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26997,7 +26997,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0011757</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -27068,7 +27068,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0011758</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -27139,7 +27139,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0011759</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -27210,7 +27210,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0011760</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -27281,7 +27281,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0011761</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -27352,7 +27352,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0011762</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -27427,7 +27427,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0011763</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -27498,7 +27498,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0011763</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -27569,7 +27569,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0011763</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -27640,7 +27640,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0011764</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27711,7 +27711,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0011765</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27782,7 +27782,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0011766</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27853,7 +27853,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0011767</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27924,7 +27924,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0011768</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -27995,7 +27995,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0011769</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -28066,7 +28066,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0011769</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -28137,7 +28137,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0011770</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -28208,7 +28208,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0011771</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -28279,7 +28279,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0011772</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -28350,7 +28350,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0011772</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -28421,7 +28421,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0011773</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -28492,7 +28492,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0011774</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -28563,7 +28563,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0011775</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -28638,7 +28638,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0011776</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28709,7 +28709,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011777</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28780,7 +28780,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011777</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28851,7 +28851,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011777</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28922,7 +28922,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011777</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -28993,7 +28993,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0011777</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -29064,7 +29064,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0011778</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -29135,7 +29135,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0011779</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -29206,7 +29206,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0011779</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -29277,7 +29277,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0011780</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -29352,7 +29352,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0011781</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -29427,7 +29427,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0011782</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -29498,7 +29498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0011783</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -29569,7 +29569,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0011784</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -29640,7 +29640,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0011785</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -29711,7 +29711,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0011786</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29782,7 +29782,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0011787</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29853,7 +29853,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0011788</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29924,7 +29924,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0011789</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29995,7 +29995,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0011790</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -30070,7 +30070,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0011791</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -30145,7 +30145,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0011792</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -30216,7 +30216,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0011793</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -30287,7 +30287,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0011794</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -30358,7 +30358,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0011795</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -30429,7 +30429,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0011796</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -30500,7 +30500,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0011797</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -30571,7 +30571,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0011798</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -30642,7 +30642,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0011799</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -30713,7 +30713,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0011800</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30784,7 +30784,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0011801</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30855,7 +30855,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0011801</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30926,7 +30926,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0011802</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30997,7 +30997,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0011802</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -31068,7 +31068,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0011803</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -31139,7 +31139,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0011804</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -31210,7 +31210,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0011805</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -31281,7 +31281,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0011806</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -31352,7 +31352,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0011806</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -31423,7 +31423,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0011807</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -31494,7 +31494,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0011808</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -31565,7 +31565,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0011809</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -31636,7 +31636,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0011810</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -31707,7 +31707,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0011811</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31778,7 +31778,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0011812</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31849,7 +31849,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0011813</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31920,7 +31920,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0011814</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -31991,7 +31991,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0011815</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -32062,7 +32062,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0011816</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -32133,7 +32133,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0011817</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -32204,7 +32204,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0011818</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -32275,7 +32275,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0011819</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -32350,7 +32350,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0011819</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -32425,7 +32425,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0011819</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -32500,7 +32500,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0011819</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -32575,7 +32575,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0011820</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -32646,7 +32646,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0011820</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -32717,7 +32717,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0011820</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -32788,7 +32788,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0011820</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32859,7 +32859,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0011821</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32930,7 +32930,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0011822</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -33005,7 +33005,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0011823</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -33076,7 +33076,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0011824</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -33147,7 +33147,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0011825</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -33218,7 +33218,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0011826</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -33289,7 +33289,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0011827</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -33360,7 +33360,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0011828</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -33435,7 +33435,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0011829</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -33510,7 +33510,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0011830</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -33581,7 +33581,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0011830</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -33652,7 +33652,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0011831</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -33723,7 +33723,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0011831</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -33794,7 +33794,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0011831</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33865,7 +33865,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0011831</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33936,7 +33936,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0011832</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -34007,7 +34007,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0011833</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -34078,7 +34078,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0011834</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -34153,7 +34153,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0011835</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -34224,7 +34224,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0011836</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -34295,7 +34295,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0011837</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -34366,7 +34366,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0011838</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -34441,7 +34441,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0011839</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -34512,7 +34512,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0011840</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -34583,7 +34583,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0011841</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -34654,7 +34654,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0011842</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -34725,7 +34725,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0011843</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -34796,7 +34796,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0011844</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34867,7 +34867,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0011845</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34938,7 +34938,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0011846</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -35013,7 +35013,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0011847</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -35084,7 +35084,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0011848</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -35155,7 +35155,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0011848</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -35226,7 +35226,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0011849</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -35297,7 +35297,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0011850</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -35368,7 +35368,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0011851</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -35439,7 +35439,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0011852</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -35510,7 +35510,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0011853</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -35581,7 +35581,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0011853</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -35652,7 +35652,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0011854</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -35723,7 +35723,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0011855</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -35794,7 +35794,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0011856</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -35865,7 +35865,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0011857</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35936,7 +35936,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0011858</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -36007,7 +36007,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0011859</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -36082,7 +36082,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0011860</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -36153,7 +36153,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0011861</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -36224,7 +36224,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0011862</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -36295,7 +36295,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0011863</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -36370,7 +36370,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0011864</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -36441,7 +36441,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0011865</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -36516,7 +36516,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0011866</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -36587,7 +36587,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0011867</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -36658,7 +36658,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0011868</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -36729,7 +36729,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0011869</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -36804,7 +36804,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0011869</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -36879,7 +36879,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0011869</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36954,7 +36954,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0011869</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -37029,7 +37029,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0011870</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -37100,7 +37100,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0011870</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -37171,7 +37171,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0011871</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -37246,7 +37246,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0011872</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -37317,7 +37317,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0011873</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -37388,7 +37388,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0011874</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -37459,7 +37459,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0011874</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -37530,7 +37530,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0011875</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -37601,7 +37601,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0011875</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -37672,7 +37672,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0011876</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -37743,7 +37743,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0011877</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -37814,7 +37814,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0011878</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -37885,7 +37885,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0011879</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -37956,7 +37956,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0011880</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -38027,7 +38027,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0011881</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -38098,7 +38098,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0011882</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -38169,7 +38169,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0011883</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -38244,7 +38244,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0011884</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -38315,7 +38315,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0011885</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -38386,7 +38386,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0011886</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -38457,7 +38457,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0011887</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -38528,7 +38528,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0011888</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -38603,7 +38603,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0011888</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -38678,7 +38678,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011889</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -38749,7 +38749,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011889</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -38820,7 +38820,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011889</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -38891,7 +38891,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011889</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -38962,7 +38962,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0011889</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -39033,7 +39033,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0011890</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -39104,7 +39104,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0011890</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -39175,7 +39175,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0011890</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -39246,7 +39246,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0011891</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -39317,7 +39317,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0011892</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -39388,7 +39388,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0011893</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -39459,7 +39459,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0011894</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -39530,7 +39530,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0011895</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -39601,7 +39601,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -39672,7 +39672,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -39743,7 +39743,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -39814,7 +39814,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -39885,7 +39885,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -39956,7 +39956,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0011896</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -40027,7 +40027,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0011897</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -40098,7 +40098,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0011897</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -40169,7 +40169,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0011898</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -40244,7 +40244,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0011899</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -40315,7 +40315,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0011899</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -40386,7 +40386,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0011900</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -40461,7 +40461,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0011901</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -40532,7 +40532,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0011902</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -40603,7 +40603,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0011903</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -40674,7 +40674,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0011903</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -40745,7 +40745,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0011904</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -40820,7 +40820,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0011905</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -40891,7 +40891,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0011906</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -40966,7 +40966,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0011907</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -41037,7 +41037,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0011907</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -41108,7 +41108,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0011907</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -41179,7 +41179,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0011907</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -41250,7 +41250,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0011908</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -41321,7 +41321,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0011909</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -41392,7 +41392,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0011910</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -41463,7 +41463,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0011911</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -41534,7 +41534,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0011912</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -41605,7 +41605,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0011913</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -41676,7 +41676,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0011914</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -41747,7 +41747,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0011915</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -41818,7 +41818,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000432</t>
+          <t>ORD_0011916</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -41889,7 +41889,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000433</t>
+          <t>ORD_0011917</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -41960,7 +41960,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000434</t>
+          <t>ORD_0011918</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -42035,7 +42035,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000435</t>
+          <t>ORD_0011919</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -42106,7 +42106,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000436</t>
+          <t>ORD_0011920</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -42177,7 +42177,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000437</t>
+          <t>ORD_0011921</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -42248,7 +42248,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000438</t>
+          <t>ORD_0011922</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -42319,7 +42319,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000439</t>
+          <t>ORD_0011923</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -42390,7 +42390,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000440</t>
+          <t>ORD_0011924</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -42465,7 +42465,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0011925</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -42536,7 +42536,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000441</t>
+          <t>ORD_0011925</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -42607,7 +42607,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000442</t>
+          <t>ORD_0011926</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -42678,7 +42678,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0011927</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -42749,7 +42749,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0011927</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -42820,7 +42820,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0011927</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -42891,7 +42891,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000443</t>
+          <t>ORD_0011927</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -42962,7 +42962,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000444</t>
+          <t>ORD_0011928</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -43033,7 +43033,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000445</t>
+          <t>ORD_0011929</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -43104,7 +43104,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000446</t>
+          <t>ORD_0011930</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -43175,7 +43175,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000447</t>
+          <t>ORD_0011931</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -43246,7 +43246,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000448</t>
+          <t>ORD_0011932</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -43317,7 +43317,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000449</t>
+          <t>ORD_0011933</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -43388,7 +43388,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000450</t>
+          <t>ORD_0011934</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -43459,7 +43459,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0011935</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -43530,7 +43530,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>ORD_0000451</t>
+          <t>ORD_0011935</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -43601,7 +43601,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>ORD_0000452</t>
+          <t>ORD_0011936</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -43676,7 +43676,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>ORD_0000453</t>
+          <t>ORD_0011937</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
